--- a/src/test/Resources/GmailData.xlsx
+++ b/src/test/Resources/GmailData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8ED5561F-C75A-4BAC-9EAD-1438D6E4AEDE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3CBEA1ED-9FF1-45CC-84BE-D9EFECA3544A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>firstName</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>MaheshBabu_007</t>
+  </si>
+  <si>
+    <t>tesbo@2018</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -589,12 +592,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9033660480</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7D2DC5B6-4A61-476C-A011-64B2EC08CFCF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>